--- a/PPV/parsers/MCChecker/GNR/##Name##_##w##_##LABEL##_PPV_Unit_Overview.xlsx
+++ b/PPV/parsers/MCChecker/GNR/##Name##_##w##_##LABEL##_PPV_Unit_Overview.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Automation\Automation\PPV\MCChecker\GNR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Automation\PPV\parsers\MCChecker\GNR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB8C681-A5A9-4975-83B7-5AE918EDCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D24FA6D-E0CE-44D9-88B2-0929F300D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B533D783-8E94-47EE-A5E0-31DB8C66C10E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B533D783-8E94-47EE-A5E0-31DB8C66C10E}"/>
   </bookViews>
   <sheets>
     <sheet name="CHA" sheetId="1" r:id="rId1"/>
     <sheet name="CORE" sheetId="5" r:id="rId2"/>
     <sheet name="PPV" sheetId="3" r:id="rId3"/>
     <sheet name="MC_Check" sheetId="2" r:id="rId4"/>
-    <sheet name="ErrorData" sheetId="6" r:id="rId5"/>
+    <sheet name="ErrorData" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="splitchar" comment="Change if using pysv registers or dpmb format">ErrorData!$G$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3114,21 +3114,21 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="105.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="105.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.90625" customWidth="1"/>
+    <col min="10" max="10" width="105.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3344,21 +3344,21 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="105.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="105.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="105.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="18.90625" customWidth="1"/>
+    <col min="10" max="10" width="105.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3509,29 +3509,29 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="13.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="5.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="7.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="86.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5546875" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="13" max="15" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.453125" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="13.453125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="5.90625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7.54296875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="86.1796875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.54296875" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="13" max="15" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="87" x14ac:dyDescent="0.35">
       <c r="B5" s="47" t="s">
         <v>35</v>
       </c>
@@ -3604,43 +3604,43 @@
   <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.08984375" customWidth="1"/>
+    <col min="4" max="4" width="46.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" customWidth="1"/>
-    <col min="24" max="24" width="6.77734375" customWidth="1"/>
-    <col min="25" max="25" width="0.5546875" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" customWidth="1"/>
-    <col min="27" max="27" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0.5546875" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.6640625" customWidth="1"/>
-    <col min="32" max="32" width="0.5546875" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="0.5546875" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="8.88671875" customWidth="1"/>
+    <col min="13" max="22" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.6328125" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" customWidth="1"/>
+    <col min="25" max="25" width="0.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.81640625" customWidth="1"/>
+    <col min="27" max="27" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0.54296875" customWidth="1"/>
+    <col min="29" max="29" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.6328125" customWidth="1"/>
+    <col min="32" max="32" width="0.54296875" customWidth="1"/>
+    <col min="33" max="33" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="0.54296875" customWidth="1"/>
+    <col min="36" max="36" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="87"/>
       <c r="B1" s="50" t="s">
         <v>91</v>
@@ -3690,7 +3690,7 @@
       <c r="AL1" s="87"/>
       <c r="AM1" s="87"/>
     </row>
-    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="87"/>
       <c r="B2" s="8" t="s">
         <v>20</v>
@@ -3752,7 +3752,7 @@
       <c r="AL2" s="87"/>
       <c r="AM2" s="87"/>
     </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="87"/>
       <c r="B3" s="1" t="str" cm="1">
         <f t="array" ref="B3">IF(C1="All",_xlfn.UNIQUE(ppv[VisualId]),_xlfn._xlws.FILTER(ppv[VisualId],(ppv[SubBucket]=C1)*(IF(D1&lt;&gt;"",ISNUMBER(SEARCH(D1, ppv[Comments])),TRUE))))</f>
@@ -3837,7 +3837,7 @@
       <c r="AL3" s="87"/>
       <c r="AM3" s="87"/>
     </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="87"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="str">
@@ -3929,7 +3929,7 @@
       <c r="AL4" s="87"/>
       <c r="AM4" s="87"/>
     </row>
-    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="87"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="str">
@@ -4004,39 +4004,39 @@
       </c>
       <c r="AB5" s="75"/>
       <c r="AC5" s="82" t="str" cm="1">
-        <f t="array" ref="AC5">IFERROR("CORE"&amp;_xlfn._xlws.FILTER(misc[location],misc[Core_Hitter_Count]&gt;=MAX(misc[Core_Hitter_Count]-AG2,1)),"")</f>
+        <f t="array" ref="AC5">IFERROR("CORE"&amp;_xlfn._xlws.FILTER(misc[location],misc[Core_Hitter_Count]&gt;MAX(misc[Core_Hitter_Count]-AG2,0)),"")</f>
         <v>CORE8</v>
       </c>
       <c r="AD5" s="79" cm="1">
-        <f t="array" ref="AD5">IFERROR(_xlfn._xlws.FILTER(misc[Core_Hitter_Count],misc[Core_Hitter_Count]&gt;=MAX(misc[Core_Hitter_Count]-$AG$2,1)),"")</f>
+        <f t="array" ref="AD5">IFERROR(_xlfn._xlws.FILTER(misc[Core_Hitter_Count],misc[Core_Hitter_Count]&gt;MAX(misc[Core_Hitter_Count]-$AG$2,0)),"")</f>
         <v>1</v>
       </c>
       <c r="AE5" s="89" t="str" cm="1">
-        <f t="array" ref="AE5">IFERROR(_xlfn._xlws.FILTER(misc[Core_FAILS],misc[Core_Hitter_Count]&gt;=MAX(misc[Core_Hitter_Count]-$AG$2,1)),"")</f>
+        <f t="array" ref="AE5">IFERROR(_xlfn._xlws.FILTER(misc[Core_FAILS],misc[Core_Hitter_Count]&gt;MAX(misc[Core_Hitter_Count]-$AG$2,0)),"")</f>
         <v>ML2</v>
       </c>
       <c r="AF5" s="69"/>
       <c r="AG5" s="88" t="str" cm="1">
-        <f t="array" ref="AG5">IFERROR("CHA"&amp;_xlfn._xlws.FILTER(misc[location],misc[CHA_Hitter_Count]&gt;=MAX(misc[CHA_Hitter_Count]-$AG$2,1)),"")</f>
+        <f t="array" ref="AG5">IFERROR("CHA"&amp;_xlfn._xlws.FILTER(misc[location],misc[CHA_Hitter_Count]&gt;MAX(misc[CHA_Hitter_Count]-$AG$2,0)),"")</f>
         <v/>
       </c>
       <c r="AH5" s="79" t="str" cm="1">
-        <f t="array" ref="AH5">IFERROR(_xlfn._xlws.FILTER(misc[CHA_Hitter_Count],misc[CHA_Hitter_Count]&gt;=MAX(misc[CHA_Hitter_Count]-$AG$2,1)),"")</f>
+        <f t="array" ref="AH5">IFERROR(_xlfn._xlws.FILTER(misc[CHA_Hitter_Count],misc[CHA_Hitter_Count]&gt;MAX(misc[CHA_Hitter_Count]-$AG$2,0)),"")</f>
         <v/>
       </c>
       <c r="AI5" s="69"/>
       <c r="AJ5" s="88" t="str" cm="1">
-        <f t="array" ref="AJ5">IFERROR("LLC"&amp;_xlfn._xlws.FILTER(misc[location],misc[LLC_Hitter_Count]&gt;=MAX(misc[LLC_Hitter_Count]-$AG$2,1)),"")</f>
+        <f t="array" ref="AJ5">IFERROR("LLC"&amp;_xlfn._xlws.FILTER(misc[location],misc[LLC_Hitter_Count]&gt;MAX(misc[LLC_Hitter_Count]-$AG$2,0)),"")</f>
         <v/>
       </c>
       <c r="AK5" s="79" t="str" cm="1">
-        <f t="array" ref="AK5">IFERROR(_xlfn._xlws.FILTER(misc[LLC_Hitter_Count],misc[LLC_Hitter_Count]&gt;=MAX(misc[LLC_Hitter_Count]-$AG$2,1)),"")</f>
+        <f t="array" ref="AK5">IFERROR(_xlfn._xlws.FILTER(misc[LLC_Hitter_Count],misc[LLC_Hitter_Count]&gt;MAX(misc[LLC_Hitter_Count]-$AG$2,0)),"")</f>
         <v/>
       </c>
       <c r="AL5" s="87"/>
       <c r="AM5" s="87"/>
     </row>
-    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="87"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="str">
@@ -4113,7 +4113,7 @@
       <c r="AL6" s="87"/>
       <c r="AM6" s="87"/>
     </row>
-    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="87"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="str">
@@ -4188,7 +4188,7 @@
       <c r="AL7" s="87"/>
       <c r="AM7" s="87"/>
     </row>
-    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="87"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="str">
@@ -4267,7 +4267,7 @@
       <c r="AL8" s="87"/>
       <c r="AM8" s="87"/>
     </row>
-    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="87"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="str">
@@ -4340,7 +4340,7 @@
       <c r="AL9" s="87"/>
       <c r="AM9" s="87"/>
     </row>
-    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="87"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="str">
@@ -4413,7 +4413,7 @@
       <c r="AL10" s="87"/>
       <c r="AM10" s="87"/>
     </row>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="87"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="str">
@@ -4488,7 +4488,7 @@
       <c r="AL11" s="87"/>
       <c r="AM11" s="87"/>
     </row>
-    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="87"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="str">
@@ -4534,7 +4534,10 @@
       <c r="V12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X12" s="80"/>
+      <c r="X12" s="80" t="str" cm="1">
+        <f t="array" ref="X12">IFERROR(_xlfn._xlws.FILTER(s3errors[type],s3errors[Counter]&gt;0),"")</f>
+        <v/>
+      </c>
       <c r="Y12" s="75"/>
       <c r="Z12" s="85"/>
       <c r="AA12" s="77"/>
@@ -4551,7 +4554,7 @@
       <c r="AL12" s="87"/>
       <c r="AM12" s="87"/>
     </row>
-    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="87"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="str">
@@ -4581,7 +4584,7 @@
       <c r="AL13" s="87"/>
       <c r="AM13" s="87"/>
     </row>
-    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="87"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="str">
@@ -4647,7 +4650,7 @@
       <c r="AL14" s="87"/>
       <c r="AM14" s="87"/>
     </row>
-    <row r="15" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="87"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="str">
@@ -4713,7 +4716,7 @@
       <c r="AL15" s="87"/>
       <c r="AM15" s="87"/>
     </row>
-    <row r="16" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="87"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="str">
@@ -4786,7 +4789,7 @@
       <c r="AL16" s="87"/>
       <c r="AM16" s="87"/>
     </row>
-    <row r="17" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="87"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="str">
@@ -4859,7 +4862,7 @@
       <c r="AL17" s="87"/>
       <c r="AM17" s="87"/>
     </row>
-    <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="87"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="str">
@@ -4933,7 +4936,7 @@
       <c r="AL18" s="87"/>
       <c r="AM18" s="87"/>
     </row>
-    <row r="19" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="87"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="str">
@@ -5007,7 +5010,7 @@
       <c r="AL19" s="87"/>
       <c r="AM19" s="87"/>
     </row>
-    <row r="20" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="87"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="str">
@@ -5081,7 +5084,7 @@
       <c r="AL20" s="87"/>
       <c r="AM20" s="87"/>
     </row>
-    <row r="21" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="87"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="str">
@@ -5155,7 +5158,7 @@
       <c r="AL21" s="87"/>
       <c r="AM21" s="87"/>
     </row>
-    <row r="22" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="87"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="str">
@@ -5229,7 +5232,7 @@
       <c r="AL22" s="87"/>
       <c r="AM22" s="87"/>
     </row>
-    <row r="23" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="87"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="str">
@@ -5293,7 +5296,7 @@
       <c r="AL23" s="87"/>
       <c r="AM23" s="87"/>
     </row>
-    <row r="24" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="87"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="str">
@@ -5324,7 +5327,7 @@
       <c r="AL24" s="87"/>
       <c r="AM24" s="87"/>
     </row>
-    <row r="25" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="87"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="str">
@@ -5391,7 +5394,7 @@
       <c r="AL25" s="87"/>
       <c r="AM25" s="87"/>
     </row>
-    <row r="26" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="87"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="str">
@@ -5458,7 +5461,7 @@
       <c r="AL26" s="87"/>
       <c r="AM26" s="87"/>
     </row>
-    <row r="27" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="87"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="str">
@@ -5533,7 +5536,7 @@
       <c r="AL27" s="87"/>
       <c r="AM27" s="87"/>
     </row>
-    <row r="28" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="87"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="str">
@@ -5608,7 +5611,7 @@
       <c r="AL28" s="87"/>
       <c r="AM28" s="87"/>
     </row>
-    <row r="29" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="87"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="str">
@@ -5683,7 +5686,7 @@
       <c r="AL29" s="87"/>
       <c r="AM29" s="87"/>
     </row>
-    <row r="30" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="87"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="str">
@@ -5758,7 +5761,7 @@
       <c r="AL30" s="87"/>
       <c r="AM30" s="87"/>
     </row>
-    <row r="31" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="87"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="str">
@@ -5833,7 +5836,7 @@
       <c r="AL31" s="87"/>
       <c r="AM31" s="87"/>
     </row>
-    <row r="32" spans="1:39" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="87"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="str">
@@ -5908,7 +5911,7 @@
       <c r="AL32" s="87"/>
       <c r="AM32" s="87"/>
     </row>
-    <row r="33" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="87"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="str">
@@ -5983,7 +5986,7 @@
       <c r="AL33" s="87"/>
       <c r="AM33" s="87"/>
     </row>
-    <row r="34" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="87"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="str">
@@ -6048,7 +6051,7 @@
       <c r="AL34" s="87"/>
       <c r="AM34" s="87"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A35" s="87"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="str">
@@ -6092,7 +6095,7 @@
       <c r="AL35" s="87"/>
       <c r="AM35" s="87"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A36" s="87"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="str">
@@ -6136,7 +6139,7 @@
       <c r="AL36" s="87"/>
       <c r="AM36" s="87"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A37" s="87"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="str">
@@ -6180,7 +6183,7 @@
       <c r="AL37" s="87"/>
       <c r="AM37" s="87"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A38" s="87"/>
       <c r="B38" s="87"/>
       <c r="C38" s="87"/>
@@ -6220,7 +6223,7 @@
       <c r="AK38" s="87"/>
       <c r="AL38" s="87"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A39" s="87"/>
       <c r="B39" s="87"/>
       <c r="C39" s="87"/>
@@ -6260,7 +6263,7 @@
       <c r="AK39" s="87"/>
       <c r="AL39" s="87"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A40" s="87"/>
       <c r="B40" s="87"/>
       <c r="C40" s="87"/>
@@ -6300,7 +6303,7 @@
       <c r="AK40" s="87"/>
       <c r="AL40" s="87"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A41" s="87"/>
       <c r="B41" s="87"/>
       <c r="C41" s="87"/>
@@ -6340,7 +6343,7 @@
       <c r="AK41" s="87"/>
       <c r="AL41" s="87"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A42" s="87"/>
       <c r="B42" s="87"/>
       <c r="C42" s="87"/>
@@ -6380,7 +6383,7 @@
       <c r="AK42" s="87"/>
       <c r="AL42" s="87"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A43" s="87"/>
       <c r="B43" s="87"/>
       <c r="C43" s="87"/>
@@ -6420,7 +6423,7 @@
       <c r="AK43" s="87"/>
       <c r="AL43" s="87"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A44" s="87"/>
       <c r="B44" s="87"/>
       <c r="C44" s="87"/>
@@ -6460,7 +6463,7 @@
       <c r="AK44" s="87"/>
       <c r="AL44" s="87"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A45" s="87"/>
       <c r="B45" s="87"/>
       <c r="C45" s="87"/>
@@ -6500,7 +6503,7 @@
       <c r="AK45" s="87"/>
       <c r="AL45" s="87"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A46" s="87"/>
       <c r="B46" s="87"/>
       <c r="C46" s="87"/>
@@ -6540,7 +6543,7 @@
       <c r="AK46" s="87"/>
       <c r="AL46" s="87"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A47" s="87"/>
       <c r="B47" s="87"/>
       <c r="C47" s="87"/>
@@ -6580,7 +6583,7 @@
       <c r="AK47" s="87"/>
       <c r="AL47" s="87"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A48" s="87"/>
       <c r="B48" s="87"/>
       <c r="C48" s="87"/>
@@ -6620,7 +6623,7 @@
       <c r="AK48" s="87"/>
       <c r="AL48" s="87"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="87"/>
       <c r="B49" s="87"/>
       <c r="C49" s="87"/>
@@ -6660,7 +6663,7 @@
       <c r="AK49" s="87"/>
       <c r="AL49" s="87"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="87"/>
       <c r="B50" s="87"/>
       <c r="C50" s="87"/>
@@ -6700,7 +6703,7 @@
       <c r="AK50" s="87"/>
       <c r="AL50" s="87"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="87"/>
       <c r="B51" s="87"/>
       <c r="C51" s="87"/>
@@ -6740,7 +6743,7 @@
       <c r="AK51" s="87"/>
       <c r="AL51" s="87"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="87"/>
       <c r="B52" s="87"/>
       <c r="C52" s="87"/>
@@ -6780,7 +6783,7 @@
       <c r="AK52" s="87"/>
       <c r="AL52" s="87"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="87"/>
       <c r="B53" s="87"/>
       <c r="C53" s="87"/>
@@ -6820,7 +6823,7 @@
       <c r="AK53" s="87"/>
       <c r="AL53" s="87"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="87"/>
       <c r="B54" s="87"/>
       <c r="C54" s="87"/>
@@ -6860,7 +6863,7 @@
       <c r="AK54" s="87"/>
       <c r="AL54" s="87"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="87"/>
       <c r="B55" s="87"/>
       <c r="C55" s="87"/>
@@ -6900,7 +6903,7 @@
       <c r="AK55" s="87"/>
       <c r="AL55" s="87"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="87"/>
       <c r="B56" s="87"/>
       <c r="C56" s="87"/>
@@ -6940,13 +6943,13 @@
       <c r="AK56" s="87"/>
       <c r="AL56" s="87"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="87"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="87"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="87"/>
     </row>
   </sheetData>
@@ -7139,43 +7142,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BEF356-01A3-45DB-BFFF-83FE6984CD58}">
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="76.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="65.77734375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" customWidth="1"/>
-    <col min="17" max="17" width="71.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1"/>
-    <col min="19" max="19" width="61.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="76.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="65.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="11" max="11" width="70.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="73.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="71.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" customWidth="1"/>
+    <col min="19" max="19" width="61.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="77.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.109375" customWidth="1"/>
-    <col min="40" max="40" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.08984375" customWidth="1"/>
+    <col min="40" max="40" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="79.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="107" t="s">
         <v>75</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3">IFERROR(SUBSTITUTE(_xlfn._xlws.FILTER(_xlfn.UNIQUE(cha_mc[VisualId]&amp;cha_mc[TestName]),ISNUMBER(SEARCH(MC_Check!H2 &amp; "*LLC*__MCI_STATUS*", _xlfn.UNIQUE(cha_mc[VisualId]&amp;cha_mc[TestName])))),MC_Check!H2,""),"No LLC Data Found")</f>
         <v>No LLC Data Found</v>
@@ -7437,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>139</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F5">
         <v>0</v>
       </c>
@@ -7680,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F6">
         <v>0</v>
       </c>
@@ -7792,15 +7795,15 @@
         <v>127</v>
       </c>
       <c r="AO6" t="str">
-        <f>"*SOCKET0**COMPUTE0**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS"&amp;splitchar&amp;"MC*STATUS*"</f>
-        <v>*SOCKET0**COMPUTE0**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS__MC*STATUS*</v>
+        <f>"*SOCKET0**COMPUTE1**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS"&amp;splitchar&amp;"MC*STATUS*"</f>
+        <v>*SOCKET0**COMPUTE1**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS__MC*STATUS*</v>
       </c>
       <c r="AP6">
         <f>COUNTIFS(cha_mc[TestName],punitmcas[[#This Row],[MCA_String]],cha_mc[VisualId],MC_Check!$H$2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>141</v>
       </c>
@@ -7915,15 +7918,15 @@
         <v>128</v>
       </c>
       <c r="AO7" t="str">
-        <f>"*SOCKET0**COMPUTE0**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS"&amp;splitchar&amp;"MC*STATUS*"</f>
-        <v>*SOCKET0**COMPUTE0**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS__MC*STATUS*</v>
+        <f>"*SOCKET0**COMPUTE2**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS"&amp;splitchar&amp;"MC*STATUS*"</f>
+        <v>*SOCKET0**COMPUTE2**UNCORE**PUNIT**PTPCFSMS**PTPCFSMS__MC*STATUS*</v>
       </c>
       <c r="AP7">
         <f>COUNTIFS(cha_mc[TestName],punitmcas[[#This Row],[MCA_String]],cha_mc[VisualId],MC_Check!$H$2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D8">
         <v>1</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>2</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D10">
         <v>3</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>0</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F12">
         <v>0</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F13">
         <v>0</v>
       </c>
@@ -8520,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F14">
         <v>0</v>
       </c>
@@ -8618,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F15">
         <v>0</v>
       </c>
@@ -8700,7 +8703,7 @@
       <c r="AE15" s="66"/>
       <c r="AF15" s="66"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="F16">
         <v>0</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>0</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F18">
         <v>0</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F19">
         <v>0</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F20">
         <v>0</v>
       </c>
@@ -9080,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F21">
         <v>0</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F22">
         <v>0</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F23">
         <v>0</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F24">
         <v>0</v>
       </c>
@@ -9384,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F25">
         <v>0</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F26">
         <v>0</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F27">
         <v>0</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F28">
         <v>0</v>
       </c>
@@ -9688,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F29">
         <v>0</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F30">
         <v>0</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F31">
         <v>0</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F32">
         <v>0</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F33">
         <v>0</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F34">
         <v>0</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F35">
         <v>0</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F36">
         <v>0</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F37">
         <v>0</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>0</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F39">
         <v>0</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F40">
         <v>0</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F41">
         <v>0</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F42">
         <v>0</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F43">
         <v>0</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F44">
         <v>0</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F45">
         <v>0</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F46">
         <v>0</v>
       </c>
@@ -11056,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F47">
         <v>0</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F48">
         <v>0</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F49">
         <v>0</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F50">
         <v>0</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F51">
         <v>0</v>
       </c>
@@ -11436,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F52">
         <v>0</v>
       </c>
@@ -11512,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F53">
         <v>0</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F54">
         <v>0</v>
       </c>
@@ -11664,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F55">
         <v>0</v>
       </c>
@@ -11740,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F56">
         <v>0</v>
       </c>
@@ -11816,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F57">
         <v>0</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F58">
         <v>0</v>
       </c>
@@ -11968,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F59">
         <v>0</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F60">
         <v>0</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F61">
         <v>0</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F62">
         <v>0</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F63">
         <v>1</v>
       </c>
@@ -12349,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F64">
         <v>1</v>
       </c>
@@ -12426,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F65">
         <v>1</v>
       </c>
@@ -12503,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F66">
         <v>1</v>
       </c>
@@ -12580,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F67">
         <v>1</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F68">
         <v>1</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F69">
         <v>1</v>
       </c>
@@ -12811,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F70">
         <v>1</v>
       </c>
@@ -12888,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F71">
         <v>1</v>
       </c>
@@ -12965,7 +12968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F72">
         <v>1</v>
       </c>
@@ -13042,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F73">
         <v>1</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F74">
         <v>1</v>
       </c>
@@ -13196,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F75">
         <v>1</v>
       </c>
@@ -13273,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F76">
         <v>1</v>
       </c>
@@ -13350,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F77">
         <v>1</v>
       </c>
@@ -13427,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F78">
         <v>1</v>
       </c>
@@ -13504,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F79">
         <v>1</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F80">
         <v>1</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F81">
         <v>1</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F82">
         <v>1</v>
       </c>
@@ -13812,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F83">
         <v>1</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F84">
         <v>1</v>
       </c>
@@ -13966,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F85">
         <v>1</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F86">
         <v>1</v>
       </c>
@@ -14120,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F87">
         <v>1</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F88">
         <v>1</v>
       </c>
@@ -14274,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F89">
         <v>1</v>
       </c>
@@ -14351,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F90">
         <v>1</v>
       </c>
@@ -14428,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F91">
         <v>1</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F92">
         <v>1</v>
       </c>
@@ -14582,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F93">
         <v>1</v>
       </c>
@@ -14659,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F94">
         <v>1</v>
       </c>
@@ -14736,7 +14739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F95">
         <v>1</v>
       </c>
@@ -14813,7 +14816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F96">
         <v>1</v>
       </c>
@@ -14890,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F97">
         <v>1</v>
       </c>
@@ -14967,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F98">
         <v>1</v>
       </c>
@@ -15044,7 +15047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F99">
         <v>1</v>
       </c>
@@ -15121,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F100">
         <v>1</v>
       </c>
@@ -15198,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F101">
         <v>1</v>
       </c>
@@ -15275,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F102">
         <v>1</v>
       </c>
@@ -15352,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F103">
         <v>1</v>
       </c>
@@ -15429,7 +15432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F104">
         <v>1</v>
       </c>
@@ -15506,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F105">
         <v>1</v>
       </c>
@@ -15583,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F106">
         <v>1</v>
       </c>
@@ -15660,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F107">
         <v>1</v>
       </c>
@@ -15737,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F108">
         <v>1</v>
       </c>
@@ -15814,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F109">
         <v>1</v>
       </c>
@@ -15891,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F110">
         <v>1</v>
       </c>
@@ -15968,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F111">
         <v>1</v>
       </c>
@@ -16045,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F112">
         <v>1</v>
       </c>
@@ -16122,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F113">
         <v>1</v>
       </c>
@@ -16199,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F114">
         <v>1</v>
       </c>
@@ -16276,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F115">
         <v>1</v>
       </c>
@@ -16353,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F116">
         <v>1</v>
       </c>
@@ -16430,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F117">
         <v>1</v>
       </c>
@@ -16507,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F118">
         <v>1</v>
       </c>
@@ -16584,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F119">
         <v>1</v>
       </c>
@@ -16661,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F120">
         <v>1</v>
       </c>
@@ -16738,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F121">
         <v>1</v>
       </c>
@@ -16815,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F122">
         <v>1</v>
       </c>
@@ -16892,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F123">
         <v>2</v>
       </c>
@@ -16969,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F124">
         <v>2</v>
       </c>
@@ -17046,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F125">
         <v>2</v>
       </c>
@@ -17123,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F126">
         <v>2</v>
       </c>
@@ -17200,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F127">
         <v>2</v>
       </c>
@@ -17277,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F128">
         <v>2</v>
       </c>
@@ -17354,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F129">
         <v>2</v>
       </c>
@@ -17431,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F130">
         <v>2</v>
       </c>
@@ -17508,7 +17511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F131">
         <v>2</v>
       </c>
@@ -17585,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F132">
         <v>2</v>
       </c>
@@ -17662,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F133">
         <v>2</v>
       </c>
@@ -17739,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F134">
         <v>2</v>
       </c>
@@ -17816,7 +17819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F135">
         <v>2</v>
       </c>
@@ -17893,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F136">
         <v>2</v>
       </c>
@@ -17970,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F137">
         <v>2</v>
       </c>
@@ -18047,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F138">
         <v>2</v>
       </c>
@@ -18124,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F139">
         <v>2</v>
       </c>
@@ -18201,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F140">
         <v>2</v>
       </c>
@@ -18278,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F141">
         <v>2</v>
       </c>
@@ -18355,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F142">
         <v>2</v>
       </c>
@@ -18432,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F143">
         <v>2</v>
       </c>
@@ -18509,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F144">
         <v>2</v>
       </c>
@@ -18586,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F145">
         <v>2</v>
       </c>
@@ -18663,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F146">
         <v>2</v>
       </c>
@@ -18740,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F147">
         <v>2</v>
       </c>
@@ -18817,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F148">
         <v>2</v>
       </c>
@@ -18894,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F149">
         <v>2</v>
       </c>
@@ -18971,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F150">
         <v>2</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F151">
         <v>2</v>
       </c>
@@ -19125,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F152">
         <v>2</v>
       </c>
@@ -19202,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F153">
         <v>2</v>
       </c>
@@ -19279,7 +19282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F154">
         <v>2</v>
       </c>
@@ -19356,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F155">
         <v>2</v>
       </c>
@@ -19433,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F156">
         <v>2</v>
       </c>
@@ -19510,7 +19513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F157">
         <v>2</v>
       </c>
@@ -19587,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F158">
         <v>2</v>
       </c>
@@ -19664,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F159">
         <v>2</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F160">
         <v>2</v>
       </c>
@@ -19818,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F161">
         <v>2</v>
       </c>
@@ -19895,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F162">
         <v>2</v>
       </c>
@@ -19972,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F163">
         <v>2</v>
       </c>
@@ -20049,7 +20052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F164">
         <v>2</v>
       </c>
@@ -20126,7 +20129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F165">
         <v>2</v>
       </c>
@@ -20203,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F166">
         <v>2</v>
       </c>
@@ -20280,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F167">
         <v>2</v>
       </c>
@@ -20357,7 +20360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F168">
         <v>2</v>
       </c>
@@ -20434,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F169">
         <v>2</v>
       </c>
@@ -20511,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F170">
         <v>2</v>
       </c>
@@ -20588,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F171">
         <v>2</v>
       </c>
@@ -20665,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F172">
         <v>2</v>
       </c>
@@ -20742,7 +20745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F173">
         <v>2</v>
       </c>
@@ -20819,7 +20822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F174">
         <v>2</v>
       </c>
@@ -20896,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F175">
         <v>2</v>
       </c>
@@ -20973,7 +20976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F176">
         <v>2</v>
       </c>
@@ -21050,7 +21053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F177">
         <v>2</v>
       </c>
@@ -21127,7 +21130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F178">
         <v>2</v>
       </c>
@@ -21204,7 +21207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F179">
         <v>2</v>
       </c>
@@ -21281,7 +21284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F180">
         <v>2</v>
       </c>
@@ -21358,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F181">
         <v>2</v>
       </c>
@@ -21435,7 +21438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:24" x14ac:dyDescent="0.35">
       <c r="F182">
         <v>2</v>
       </c>
